--- a/apiData/autotest.xlsx
+++ b/apiData/autotest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="894" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>model</t>
   </si>
@@ -37,10 +37,10 @@
     <t>rely</t>
   </si>
   <si>
-    <t>{"userName":"纪亚楠","force":null,"userPassword":"000000"}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/AppAutoTest/users/login.do</t>
+    <t>{"userName":"admin","force":null,"userPassword":"000000"}</t>
+  </si>
+  <si>
+    <t>http://42.192.22.244:8080/AppAutoTest/users/login.do</t>
   </si>
   <si>
     <t>post</t>
@@ -49,13 +49,16 @@
     <t>response_json["return_message"]</t>
   </si>
   <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"appName":"测试接口添加","osType":"Web","appPackage_input_a":null,"appUrl":"test","elementTimeout":"30","pageTimeout":"30","appPackage":null}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/AppAutoTest/logoutAction.do</t>
+  </si>
+  <si>
     <t>应用添加成功</t>
-  </si>
-  <si>
-    <t>{"appName":"测试接口添加","osType":"Web","appPackage_input_a":null,"appUrl":"test","elementTimeout":"30","pageTimeout":"30","appPackage":null}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/AppAutoTest/logoutAction.do</t>
   </si>
   <si>
     <t>login</t>
@@ -75,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -105,6 +108,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -112,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -120,7 +147,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,100 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +245,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,169 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,54 +441,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,20 +476,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,7 +502,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +556,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,112 +577,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,17 +1052,17 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="67.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" customWidth="1"/>
+    <col min="1" max="1" width="55.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="57.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="10.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="22.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1102,7 +1105,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/AppAutoTest/users/login.do" tooltip="http://localhost:8080/AppAutoTest/users/login.do"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://42.192.22.244:8080/AppAutoTest/users/login.do" tooltip="http://42.192.22.244:8080/AppAutoTest/users/login.do"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1114,18 +1117,19 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="41.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.55555555555556" customWidth="1"/>
-    <col min="4" max="4" width="47.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="35.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="50.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="6.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="33.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="7.11111111111111" customWidth="1"/>
+    <col min="7" max="7" width="9.22222222222222" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
     <col min="10" max="10" width="8.44444444444444" customWidth="1"/>
@@ -1165,10 +1169,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1222,10 +1226,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1234,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1257,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1265,7 +1269,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
